--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version3.1.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="20640" windowHeight="11730"/>
+    <workbookView xWindow="0" yWindow="2775" windowWidth="27630" windowHeight="10125"/>
   </bookViews>
   <sheets>
     <sheet name="版本3.1.1 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
   <si>
     <t>No</t>
   </si>
@@ -287,14 +283,22 @@
   </si>
   <si>
     <t>租客</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -616,74 +620,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -703,7 +639,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1023,14 +959,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
     <col min="2" max="2" width="40" style="20" customWidth="1"/>
@@ -1054,7 +990,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1049,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1159,7 +1095,7 @@
       </c>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="17.25" customHeight="1">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -1203,7 +1139,7 @@
       </c>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -1247,7 +1183,7 @@
       </c>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1291,7 +1227,7 @@
       </c>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1335,7 +1271,7 @@
       </c>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1370,9 +1306,15 @@
       <c r="L7" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="M7" s="14"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
+      <c r="M7" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N7" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="30"/>
@@ -1381,7 +1323,7 @@
       </c>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -1427,7 +1369,7 @@
       </c>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1471,7 +1413,7 @@
       </c>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1515,7 +1457,7 @@
       </c>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1561,7 +1503,7 @@
       </c>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -1605,7 +1547,7 @@
       </c>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1640,9 +1582,15 @@
       <c r="L13" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
+      <c r="M13" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="31"/>
@@ -1651,7 +1599,7 @@
       </c>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1686,9 +1634,15 @@
       <c r="L14" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="14"/>
+      <c r="M14" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O14" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="31"/>
@@ -1697,7 +1651,7 @@
       </c>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1732,9 +1686,15 @@
       <c r="L15" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
+      <c r="M15" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="31"/>
@@ -1743,7 +1703,7 @@
       </c>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -1787,7 +1747,7 @@
       </c>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -1822,9 +1782,15 @@
       <c r="L17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M17" s="14"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
+      <c r="M17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O17" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="31"/>
@@ -1833,7 +1799,7 @@
       </c>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -1868,9 +1834,15 @@
       <c r="L18" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="14"/>
+      <c r="M18" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O18" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="31"/>
@@ -1879,7 +1851,7 @@
       </c>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A19" s="21"/>
       <c r="B19" s="8"/>
       <c r="C19" s="12"/>
@@ -1901,7 +1873,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A20" s="21"/>
       <c r="B20" s="8"/>
       <c r="C20" s="12"/>
@@ -1923,7 +1895,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A21" s="21"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
@@ -1945,7 +1917,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A22" s="21"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -1967,7 +1939,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12"/>
@@ -1989,7 +1961,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A24" s="21"/>
       <c r="B24" s="8"/>
       <c r="C24" s="12"/>
@@ -2011,7 +1983,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A25" s="21"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -2033,7 +2005,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A26" s="21"/>
       <c r="B26" s="8"/>
       <c r="C26" s="12"/>
@@ -2055,7 +2027,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A27" s="21"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12"/>
@@ -2077,7 +2049,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A28" s="21"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
@@ -2099,7 +2071,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A29" s="21"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
@@ -2121,7 +2093,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A30" s="21"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
@@ -2143,7 +2115,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A31" s="21"/>
       <c r="B31" s="8"/>
       <c r="C31" s="12"/>
@@ -2165,7 +2137,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A32" s="21"/>
       <c r="B32" s="8"/>
       <c r="C32" s="12"/>
@@ -2187,7 +2159,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A33" s="21"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
@@ -2209,7 +2181,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A34" s="21"/>
       <c r="B34" s="8"/>
       <c r="C34" s="12"/>
@@ -2231,7 +2203,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A35" s="21"/>
       <c r="B35" s="8"/>
       <c r="C35" s="12"/>
@@ -2253,7 +2225,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A36" s="21"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
@@ -2275,7 +2247,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A37" s="21"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
@@ -2297,7 +2269,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="12"/>
@@ -2319,7 +2291,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A39" s="21"/>
       <c r="B39" s="8"/>
       <c r="C39" s="12"/>
@@ -2341,7 +2313,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A40" s="21"/>
       <c r="B40" s="8"/>
       <c r="C40" s="12"/>
@@ -2363,7 +2335,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A41" s="21"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12"/>
@@ -2385,7 +2357,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A42" s="21"/>
       <c r="B42" s="8"/>
       <c r="C42" s="12"/>
@@ -2407,7 +2379,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A43" s="21"/>
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
@@ -2429,7 +2401,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A44" s="21"/>
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
@@ -2451,7 +2423,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A45" s="21"/>
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
@@ -2473,7 +2445,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A46" s="21"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12"/>
@@ -2495,7 +2467,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A47" s="21"/>
       <c r="B47" s="8"/>
       <c r="C47" s="12"/>
@@ -2517,7 +2489,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A48" s="21"/>
       <c r="B48" s="8"/>
       <c r="C48" s="12"/>
@@ -2539,7 +2511,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A49" s="21"/>
       <c r="B49" s="8"/>
       <c r="C49" s="12"/>
@@ -2561,7 +2533,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A50" s="9"/>
       <c r="B50" s="17"/>
       <c r="C50" s="9"/>
@@ -2583,7 +2555,7 @@
       <c r="S50" s="17"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5">
       <c r="A51" s="9"/>
       <c r="B51" s="17"/>
       <c r="C51" s="9"/>
@@ -2605,7 +2577,7 @@
       <c r="S51" s="17"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:20" ht="16.5">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2626,7 +2598,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:20" ht="16.5">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2647,7 +2619,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:20" ht="16.5">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2668,7 +2640,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:20" ht="16.5">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2689,7 +2661,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:20" ht="16.5">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2710,7 +2682,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:20" ht="16.5">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2731,7 +2703,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:20" ht="16.5">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2752,7 +2724,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:20" ht="16.5">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -2773,7 +2745,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:20" ht="16.5">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -2794,7 +2766,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:20" ht="16.5">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -2815,7 +2787,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:20" ht="16.5">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2836,7 +2808,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:20" ht="16.5">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2857,7 +2829,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:20" ht="16.5">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2878,7 +2850,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:19" ht="16.5">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2899,7 +2871,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:19" ht="16.5">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2920,7 +2892,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:19" ht="16.5">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2941,7 +2913,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:19" ht="16.5">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2962,7 +2934,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:19" ht="16.5">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -2983,7 +2955,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:19" ht="16.5">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -3004,7 +2976,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:19" ht="16.5">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -3025,7 +2997,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:19" ht="16.5">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3046,7 +3018,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:19" ht="16.5">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3067,7 +3039,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:19" ht="16.5">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3088,7 +3060,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:19" ht="16.5">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3109,7 +3081,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:19" ht="16.5">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3130,7 +3102,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:19" ht="16.5">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3151,7 +3123,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:19" ht="16.5">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3172,7 +3144,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:19" ht="16.5">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3193,7 +3165,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:19" ht="16.5">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3214,7 +3186,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:19" ht="16.5">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3235,7 +3207,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:19" ht="16.5">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3256,7 +3228,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:19" ht="16.5">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3277,7 +3249,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:19" ht="16.5">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3298,7 +3270,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:19" ht="16.5">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3319,7 +3291,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:19" ht="16.5">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3340,7 +3312,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:19" ht="16.5">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3361,7 +3333,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:19" ht="16.5">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3382,7 +3354,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:19" ht="16.5">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3403,7 +3375,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:19" ht="16.5">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3424,7 +3396,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:19" ht="16.5">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3445,7 +3417,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:19" ht="16.5">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3466,7 +3438,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:19" ht="16.5">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3487,7 +3459,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:19" ht="16.5">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3508,7 +3480,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:19" ht="16.5">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3529,7 +3501,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:19" ht="16.5">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3550,7 +3522,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:19" ht="16.5">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3571,7 +3543,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:19" ht="16.5">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3592,7 +3564,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:19" ht="16.5">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3613,7 +3585,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:19" ht="16.5">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3634,7 +3606,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:19" ht="16.5">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3655,7 +3627,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:19" ht="16.5">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3676,7 +3648,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:19" ht="16.5">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3697,7 +3669,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:19" ht="16.5">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3718,7 +3690,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:19" ht="16.5">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3739,7 +3711,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:19" ht="16.5">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3760,7 +3732,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:19" ht="16.5">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3781,7 +3753,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:19" ht="16.5">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3802,7 +3774,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:19" ht="16.5">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3823,7 +3795,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:19" ht="16.5">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3844,7 +3816,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:19" ht="16.5">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3865,7 +3837,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:19" ht="16.5">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3886,7 +3858,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:19">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3907,7 +3879,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:19">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3928,7 +3900,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:19">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3949,7 +3921,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:19">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3970,7 +3942,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:19">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3991,7 +3963,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:19">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -4012,7 +3984,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:19">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -4033,7 +4005,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:19">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -4054,7 +4026,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:19">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -4075,7 +4047,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:19">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -4096,7 +4068,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:19">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4117,7 +4089,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:19">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -4138,7 +4110,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:19">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4159,7 +4131,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:19">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4180,7 +4152,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:19">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4201,7 +4173,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:19">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4222,7 +4194,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:19">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4243,7 +4215,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:19">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4264,7 +4236,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:19">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4285,7 +4257,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:19">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -4306,7 +4278,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:19">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4327,7 +4299,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:19">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4348,7 +4320,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:19">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4369,7 +4341,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:19">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4390,7 +4362,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:19">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4411,7 +4383,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:19">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4432,7 +4404,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:19">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4453,7 +4425,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:19">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4474,7 +4446,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:19">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4495,7 +4467,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:19">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4516,7 +4488,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:19">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4537,7 +4509,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:19">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4558,7 +4530,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:19">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4579,7 +4551,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:19">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4600,7 +4572,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:19">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -4621,7 +4593,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:19">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -4642,7 +4614,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:19">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -4663,7 +4635,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:19">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -4684,7 +4656,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:19">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -4705,7 +4677,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:19">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -4726,7 +4698,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:19">
       <c r="A153" s="7"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -4747,7 +4719,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:19">
       <c r="A154" s="7"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -4768,7 +4740,7 @@
       <c r="R154" s="7"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:19">
       <c r="A155" s="7"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -4789,7 +4761,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:19">
       <c r="A156" s="7"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -4810,7 +4782,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:19">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -4831,7 +4803,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:19">
       <c r="A158" s="7"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -4852,7 +4824,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:19">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -4873,7 +4845,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:19">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -4894,7 +4866,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:19">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -4914,7 +4886,7 @@
       <c r="Q161" s="7"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:19">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -4934,7 +4906,7 @@
       <c r="Q162" s="7"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:19">
       <c r="A163" s="7"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -4954,7 +4926,7 @@
       <c r="Q163" s="7"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:19">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -4974,7 +4946,7 @@
       <c r="Q164" s="7"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:19">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -4994,7 +4966,7 @@
       <c r="Q165" s="7"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:19">
       <c r="A166" s="7"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -5014,7 +4986,7 @@
       <c r="Q166" s="7"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:19">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -5034,7 +5006,7 @@
       <c r="Q167" s="7"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:19">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -5054,7 +5026,7 @@
       <c r="Q168" s="7"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:19">
       <c r="A169" s="7"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -5074,7 +5046,7 @@
       <c r="Q169" s="7"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:19">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -5094,7 +5066,7 @@
       <c r="Q170" s="7"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:19">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -5114,7 +5086,7 @@
       <c r="Q171" s="7"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:19">
       <c r="A172" s="7"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -5134,7 +5106,7 @@
       <c r="Q172" s="7"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:19">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -5152,7 +5124,7 @@
       <c r="O173" s="4"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:19">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -5170,7 +5142,7 @@
       <c r="O174" s="4"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:19">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -5188,7 +5160,7 @@
       <c r="O175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:19">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -5206,7 +5178,7 @@
       <c r="O176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:19">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -5224,7 +5196,7 @@
       <c r="O177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:19">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -5242,7 +5214,7 @@
       <c r="O178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:19">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -5260,7 +5232,7 @@
       <c r="O179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:19">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -5278,7 +5250,7 @@
       <c r="O180" s="4"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:19">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -5296,7 +5268,7 @@
       <c r="O181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="182" spans="1:19">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -5314,7 +5286,7 @@
       <c r="O182" s="4"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="183" spans="1:19">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
@@ -5332,7 +5304,7 @@
       <c r="O183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="184" spans="1:19">
       <c r="A184" s="7"/>
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
@@ -5350,7 +5322,7 @@
       <c r="O184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="185" spans="1:19">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
@@ -5368,7 +5340,7 @@
       <c r="O185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="186" spans="1:19">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
@@ -5386,7 +5358,7 @@
       <c r="O186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="187" spans="1:19">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
@@ -5404,7 +5376,7 @@
       <c r="O187" s="4"/>
       <c r="S187" s="4"/>
     </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="188" spans="1:19">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
@@ -5422,7 +5394,7 @@
       <c r="O188" s="4"/>
       <c r="S188" s="4"/>
     </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="189" spans="1:19">
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
@@ -5440,7 +5412,7 @@
       <c r="O189" s="4"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="190" spans="1:19">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
       <c r="C190" s="7"/>
@@ -5458,7 +5430,7 @@
       <c r="O190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="191" spans="1:19">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
       <c r="C191" s="7"/>
@@ -5476,7 +5448,7 @@
       <c r="O191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="192" spans="1:19">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
       <c r="C192" s="7"/>
@@ -5494,7 +5466,7 @@
       <c r="O192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="193" spans="1:19">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
       <c r="C193" s="7"/>
@@ -5512,7 +5484,7 @@
       <c r="O193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="194" spans="1:19">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
       <c r="C194" s="7"/>
@@ -5530,7 +5502,7 @@
       <c r="O194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="195" spans="1:19">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
       <c r="C195" s="7"/>
@@ -5548,7 +5520,7 @@
       <c r="O195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="196" spans="1:19">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
       <c r="C196" s="7"/>
@@ -5566,7 +5538,7 @@
       <c r="O196" s="4"/>
       <c r="S196" s="4"/>
     </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="197" spans="1:19">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
       <c r="C197" s="7"/>
@@ -5584,7 +5556,7 @@
       <c r="O197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="198" spans="1:19">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
       <c r="C198" s="7"/>
@@ -5602,7 +5574,7 @@
       <c r="O198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="199" spans="1:19">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
       <c r="C199" s="7"/>
@@ -5620,7 +5592,7 @@
       <c r="O199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="200" spans="1:19">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
       <c r="C200" s="7"/>
@@ -5638,7 +5610,7 @@
       <c r="O200" s="4"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="201" spans="1:19">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
       <c r="C201" s="7"/>
@@ -5656,7 +5628,7 @@
       <c r="O201" s="4"/>
       <c r="S201" s="4"/>
     </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="202" spans="1:19">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
       <c r="C202" s="7"/>
@@ -5674,7 +5646,7 @@
       <c r="O202" s="4"/>
       <c r="S202" s="4"/>
     </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="203" spans="1:19">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
       <c r="C203" s="7"/>
@@ -5692,7 +5664,7 @@
       <c r="O203" s="4"/>
       <c r="S203" s="4"/>
     </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="204" spans="1:19">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
       <c r="C204" s="7"/>
@@ -5710,7 +5682,7 @@
       <c r="O204" s="4"/>
       <c r="S204" s="4"/>
     </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="205" spans="1:19">
       <c r="A205" s="7"/>
       <c r="B205" s="4"/>
       <c r="C205" s="7"/>
@@ -5728,7 +5700,7 @@
       <c r="O205" s="4"/>
       <c r="S205" s="4"/>
     </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="206" spans="1:19">
       <c r="A206" s="7"/>
       <c r="B206" s="4"/>
       <c r="C206" s="7"/>
@@ -5746,7 +5718,7 @@
       <c r="O206" s="4"/>
       <c r="S206" s="4"/>
     </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
+    <row r="207" spans="1:19">
       <c r="A207" s="7"/>
       <c r="B207" s="4"/>
       <c r="C207" s="7"/>
@@ -5772,14 +5744,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5790,7 +5762,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -5816,7 +5788,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -5826,7 +5798,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -5836,7 +5808,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -5846,7 +5818,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -5856,7 +5828,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -5866,7 +5838,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -5876,7 +5848,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -5886,7 +5858,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -5896,7 +5868,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5906,7 +5878,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5916,7 +5888,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5926,7 +5898,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5936,7 +5908,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -5946,7 +5918,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5956,7 +5928,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5966,7 +5938,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -5976,7 +5948,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -5986,7 +5958,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MogoGit\Mogo_Doc\VersionRecords\Version3.1.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="27630" windowHeight="10125"/>
   </bookViews>
@@ -11,12 +16,11 @@
     <sheet name="数据修复" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -291,14 +295,22 @@
   </si>
   <si>
     <t>能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>施超</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -959,14 +971,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T207"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
     <col min="2" max="2" width="40" style="20" customWidth="1"/>
@@ -990,7 +1002,7 @@
     <col min="21" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1">
+    <row r="1" spans="1:20" s="1" customFormat="1" ht="27.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1049,7 +1061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1">
+    <row r="2" spans="1:20" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="21">
         <v>1</v>
       </c>
@@ -1082,7 +1094,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="13"/>
@@ -1095,7 +1107,7 @@
       </c>
       <c r="T2" s="10"/>
     </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="17.25" customHeight="1">
+    <row r="3" spans="1:20" s="11" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="21">
         <v>2</v>
       </c>
@@ -1139,7 +1151,7 @@
       </c>
       <c r="T3" s="10"/>
     </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="4" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="21">
         <v>3</v>
       </c>
@@ -1183,7 +1195,7 @@
       </c>
       <c r="T4" s="10"/>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="5" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>4</v>
       </c>
@@ -1227,7 +1239,7 @@
       </c>
       <c r="T5" s="10"/>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="6" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="21">
         <v>5</v>
       </c>
@@ -1271,7 +1283,7 @@
       </c>
       <c r="T6" s="10"/>
     </row>
-    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="7" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="21">
         <v>6</v>
       </c>
@@ -1323,7 +1335,7 @@
       </c>
       <c r="T7" s="10"/>
     </row>
-    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="8" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="21">
         <v>7</v>
       </c>
@@ -1369,7 +1381,7 @@
       </c>
       <c r="T8" s="10"/>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="9" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="21">
         <v>8</v>
       </c>
@@ -1413,7 +1425,7 @@
       </c>
       <c r="T9" s="10"/>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="10" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="21">
         <v>9</v>
       </c>
@@ -1457,7 +1469,7 @@
       </c>
       <c r="T10" s="10"/>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="11" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="21">
         <v>10</v>
       </c>
@@ -1492,9 +1504,15 @@
       <c r="L11" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
+      <c r="M11" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N11" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>72</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="31"/>
@@ -1503,7 +1521,7 @@
       </c>
       <c r="T11" s="10"/>
     </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="12" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="21">
         <v>11</v>
       </c>
@@ -1547,7 +1565,7 @@
       </c>
       <c r="T12" s="10"/>
     </row>
-    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="13" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="21">
         <v>12</v>
       </c>
@@ -1599,7 +1617,7 @@
       </c>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="14" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="21">
         <v>13</v>
       </c>
@@ -1651,7 +1669,7 @@
       </c>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="15" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="21">
         <v>14</v>
       </c>
@@ -1703,7 +1721,7 @@
       </c>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="16" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="21">
         <v>15</v>
       </c>
@@ -1747,7 +1765,7 @@
       </c>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="17" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="21">
         <v>16</v>
       </c>
@@ -1799,7 +1817,7 @@
       </c>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="18" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="21">
         <v>17</v>
       </c>
@@ -1851,7 +1869,7 @@
       </c>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="19" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="21"/>
       <c r="B19" s="8"/>
       <c r="C19" s="12"/>
@@ -1873,7 +1891,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="20" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="21"/>
       <c r="B20" s="8"/>
       <c r="C20" s="12"/>
@@ -1895,7 +1913,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="21" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="21"/>
       <c r="B21" s="8"/>
       <c r="C21" s="12"/>
@@ -1917,7 +1935,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="22" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="21"/>
       <c r="B22" s="8"/>
       <c r="C22" s="12"/>
@@ -1939,7 +1957,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="23" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="12"/>
@@ -1961,7 +1979,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="10"/>
     </row>
-    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="24" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="21"/>
       <c r="B24" s="8"/>
       <c r="C24" s="12"/>
@@ -1983,7 +2001,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="10"/>
     </row>
-    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="25" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="21"/>
       <c r="B25" s="8"/>
       <c r="C25" s="12"/>
@@ -2005,7 +2023,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="10"/>
     </row>
-    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="26" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="21"/>
       <c r="B26" s="8"/>
       <c r="C26" s="12"/>
@@ -2027,7 +2045,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="10"/>
     </row>
-    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="27" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A27" s="21"/>
       <c r="B27" s="8"/>
       <c r="C27" s="12"/>
@@ -2049,7 +2067,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="10"/>
     </row>
-    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="28" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="21"/>
       <c r="B28" s="8"/>
       <c r="C28" s="12"/>
@@ -2071,7 +2089,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="10"/>
     </row>
-    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="29" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="21"/>
       <c r="B29" s="8"/>
       <c r="C29" s="12"/>
@@ -2093,7 +2111,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="30" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A30" s="21"/>
       <c r="B30" s="8"/>
       <c r="C30" s="12"/>
@@ -2115,7 +2133,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="31" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A31" s="21"/>
       <c r="B31" s="8"/>
       <c r="C31" s="12"/>
@@ -2137,7 +2155,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="32" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A32" s="21"/>
       <c r="B32" s="8"/>
       <c r="C32" s="12"/>
@@ -2159,7 +2177,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="10"/>
     </row>
-    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="33" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A33" s="21"/>
       <c r="B33" s="8"/>
       <c r="C33" s="12"/>
@@ -2181,7 +2199,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="10"/>
     </row>
-    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="34" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="21"/>
       <c r="B34" s="8"/>
       <c r="C34" s="12"/>
@@ -2203,7 +2221,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="10"/>
     </row>
-    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="35" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A35" s="21"/>
       <c r="B35" s="8"/>
       <c r="C35" s="12"/>
@@ -2225,7 +2243,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="10"/>
     </row>
-    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="36" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A36" s="21"/>
       <c r="B36" s="8"/>
       <c r="C36" s="12"/>
@@ -2247,7 +2265,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="10"/>
     </row>
-    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="37" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="21"/>
       <c r="B37" s="8"/>
       <c r="C37" s="12"/>
@@ -2269,7 +2287,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="10"/>
     </row>
-    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="38" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="12"/>
@@ -2291,7 +2309,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="10"/>
     </row>
-    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="39" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A39" s="21"/>
       <c r="B39" s="8"/>
       <c r="C39" s="12"/>
@@ -2313,7 +2331,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="10"/>
     </row>
-    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="40" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A40" s="21"/>
       <c r="B40" s="8"/>
       <c r="C40" s="12"/>
@@ -2335,7 +2353,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="10"/>
     </row>
-    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="41" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A41" s="21"/>
       <c r="B41" s="8"/>
       <c r="C41" s="12"/>
@@ -2357,7 +2375,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="10"/>
     </row>
-    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="42" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A42" s="21"/>
       <c r="B42" s="8"/>
       <c r="C42" s="12"/>
@@ -2379,7 +2397,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="10"/>
     </row>
-    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="43" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A43" s="21"/>
       <c r="B43" s="8"/>
       <c r="C43" s="12"/>
@@ -2401,7 +2419,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="10"/>
     </row>
-    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="44" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A44" s="21"/>
       <c r="B44" s="8"/>
       <c r="C44" s="12"/>
@@ -2423,7 +2441,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="10"/>
     </row>
-    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="45" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A45" s="21"/>
       <c r="B45" s="8"/>
       <c r="C45" s="12"/>
@@ -2445,7 +2463,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="10"/>
     </row>
-    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="46" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A46" s="21"/>
       <c r="B46" s="8"/>
       <c r="C46" s="12"/>
@@ -2467,7 +2485,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="10"/>
     </row>
-    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="47" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A47" s="21"/>
       <c r="B47" s="8"/>
       <c r="C47" s="12"/>
@@ -2489,7 +2507,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="10"/>
     </row>
-    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="48" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A48" s="21"/>
       <c r="B48" s="8"/>
       <c r="C48" s="12"/>
@@ -2511,7 +2529,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="10"/>
     </row>
-    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="49" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A49" s="21"/>
       <c r="B49" s="8"/>
       <c r="C49" s="12"/>
@@ -2533,7 +2551,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="10"/>
     </row>
-    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="50" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="17"/>
       <c r="C50" s="9"/>
@@ -2555,7 +2573,7 @@
       <c r="S50" s="17"/>
       <c r="T50" s="10"/>
     </row>
-    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5">
+    <row r="51" spans="1:20" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="17"/>
       <c r="C51" s="9"/>
@@ -2577,7 +2595,7 @@
       <c r="S51" s="17"/>
       <c r="T51" s="10"/>
     </row>
-    <row r="52" spans="1:20" ht="16.5">
+    <row r="52" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A52" s="7"/>
       <c r="B52" s="4"/>
       <c r="C52" s="7"/>
@@ -2598,7 +2616,7 @@
       <c r="R52" s="7"/>
       <c r="S52" s="4"/>
     </row>
-    <row r="53" spans="1:20" ht="16.5">
+    <row r="53" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A53" s="7"/>
       <c r="B53" s="4"/>
       <c r="C53" s="7"/>
@@ -2619,7 +2637,7 @@
       <c r="R53" s="7"/>
       <c r="S53" s="4"/>
     </row>
-    <row r="54" spans="1:20" ht="16.5">
+    <row r="54" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A54" s="7"/>
       <c r="B54" s="4"/>
       <c r="C54" s="7"/>
@@ -2640,7 +2658,7 @@
       <c r="R54" s="7"/>
       <c r="S54" s="4"/>
     </row>
-    <row r="55" spans="1:20" ht="16.5">
+    <row r="55" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A55" s="7"/>
       <c r="B55" s="4"/>
       <c r="C55" s="7"/>
@@ -2661,7 +2679,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="4"/>
     </row>
-    <row r="56" spans="1:20" ht="16.5">
+    <row r="56" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A56" s="7"/>
       <c r="B56" s="4"/>
       <c r="C56" s="7"/>
@@ -2682,7 +2700,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="4"/>
     </row>
-    <row r="57" spans="1:20" ht="16.5">
+    <row r="57" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A57" s="7"/>
       <c r="B57" s="4"/>
       <c r="C57" s="7"/>
@@ -2703,7 +2721,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="4"/>
     </row>
-    <row r="58" spans="1:20" ht="16.5">
+    <row r="58" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A58" s="7"/>
       <c r="B58" s="4"/>
       <c r="C58" s="7"/>
@@ -2724,7 +2742,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="4"/>
     </row>
-    <row r="59" spans="1:20" ht="16.5">
+    <row r="59" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A59" s="7"/>
       <c r="B59" s="4"/>
       <c r="C59" s="7"/>
@@ -2745,7 +2763,7 @@
       <c r="R59" s="7"/>
       <c r="S59" s="4"/>
     </row>
-    <row r="60" spans="1:20" ht="16.5">
+    <row r="60" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A60" s="7"/>
       <c r="B60" s="4"/>
       <c r="C60" s="7"/>
@@ -2766,7 +2784,7 @@
       <c r="R60" s="7"/>
       <c r="S60" s="4"/>
     </row>
-    <row r="61" spans="1:20" ht="16.5">
+    <row r="61" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A61" s="7"/>
       <c r="B61" s="4"/>
       <c r="C61" s="7"/>
@@ -2787,7 +2805,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="4"/>
     </row>
-    <row r="62" spans="1:20" ht="16.5">
+    <row r="62" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A62" s="7"/>
       <c r="B62" s="4"/>
       <c r="C62" s="7"/>
@@ -2808,7 +2826,7 @@
       <c r="R62" s="7"/>
       <c r="S62" s="4"/>
     </row>
-    <row r="63" spans="1:20" ht="16.5">
+    <row r="63" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A63" s="7"/>
       <c r="B63" s="4"/>
       <c r="C63" s="7"/>
@@ -2829,7 +2847,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="4"/>
     </row>
-    <row r="64" spans="1:20" ht="16.5">
+    <row r="64" spans="1:20" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A64" s="7"/>
       <c r="B64" s="4"/>
       <c r="C64" s="7"/>
@@ -2850,7 +2868,7 @@
       <c r="R64" s="7"/>
       <c r="S64" s="4"/>
     </row>
-    <row r="65" spans="1:19" ht="16.5">
+    <row r="65" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A65" s="7"/>
       <c r="B65" s="4"/>
       <c r="C65" s="7"/>
@@ -2871,7 +2889,7 @@
       <c r="R65" s="7"/>
       <c r="S65" s="4"/>
     </row>
-    <row r="66" spans="1:19" ht="16.5">
+    <row r="66" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A66" s="7"/>
       <c r="B66" s="4"/>
       <c r="C66" s="7"/>
@@ -2892,7 +2910,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="4"/>
     </row>
-    <row r="67" spans="1:19" ht="16.5">
+    <row r="67" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A67" s="7"/>
       <c r="B67" s="4"/>
       <c r="C67" s="7"/>
@@ -2913,7 +2931,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="4"/>
     </row>
-    <row r="68" spans="1:19" ht="16.5">
+    <row r="68" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A68" s="7"/>
       <c r="B68" s="4"/>
       <c r="C68" s="7"/>
@@ -2934,7 +2952,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="4"/>
     </row>
-    <row r="69" spans="1:19" ht="16.5">
+    <row r="69" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A69" s="7"/>
       <c r="B69" s="4"/>
       <c r="C69" s="7"/>
@@ -2955,7 +2973,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="4"/>
     </row>
-    <row r="70" spans="1:19" ht="16.5">
+    <row r="70" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A70" s="7"/>
       <c r="B70" s="4"/>
       <c r="C70" s="7"/>
@@ -2976,7 +2994,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="4"/>
     </row>
-    <row r="71" spans="1:19" ht="16.5">
+    <row r="71" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A71" s="7"/>
       <c r="B71" s="4"/>
       <c r="C71" s="7"/>
@@ -2997,7 +3015,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="4"/>
     </row>
-    <row r="72" spans="1:19" ht="16.5">
+    <row r="72" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A72" s="7"/>
       <c r="B72" s="4"/>
       <c r="C72" s="7"/>
@@ -3018,7 +3036,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="4"/>
     </row>
-    <row r="73" spans="1:19" ht="16.5">
+    <row r="73" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A73" s="7"/>
       <c r="B73" s="4"/>
       <c r="C73" s="7"/>
@@ -3039,7 +3057,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="4"/>
     </row>
-    <row r="74" spans="1:19" ht="16.5">
+    <row r="74" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A74" s="7"/>
       <c r="B74" s="4"/>
       <c r="C74" s="7"/>
@@ -3060,7 +3078,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="4"/>
     </row>
-    <row r="75" spans="1:19" ht="16.5">
+    <row r="75" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A75" s="7"/>
       <c r="B75" s="4"/>
       <c r="C75" s="7"/>
@@ -3081,7 +3099,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="4"/>
     </row>
-    <row r="76" spans="1:19" ht="16.5">
+    <row r="76" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A76" s="7"/>
       <c r="B76" s="4"/>
       <c r="C76" s="7"/>
@@ -3102,7 +3120,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="4"/>
     </row>
-    <row r="77" spans="1:19" ht="16.5">
+    <row r="77" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A77" s="7"/>
       <c r="B77" s="4"/>
       <c r="C77" s="7"/>
@@ -3123,7 +3141,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="4"/>
     </row>
-    <row r="78" spans="1:19" ht="16.5">
+    <row r="78" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A78" s="7"/>
       <c r="B78" s="4"/>
       <c r="C78" s="7"/>
@@ -3144,7 +3162,7 @@
       <c r="R78" s="7"/>
       <c r="S78" s="4"/>
     </row>
-    <row r="79" spans="1:19" ht="16.5">
+    <row r="79" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A79" s="7"/>
       <c r="B79" s="4"/>
       <c r="C79" s="7"/>
@@ -3165,7 +3183,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="4"/>
     </row>
-    <row r="80" spans="1:19" ht="16.5">
+    <row r="80" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A80" s="7"/>
       <c r="B80" s="4"/>
       <c r="C80" s="7"/>
@@ -3186,7 +3204,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="4"/>
     </row>
-    <row r="81" spans="1:19" ht="16.5">
+    <row r="81" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A81" s="7"/>
       <c r="B81" s="4"/>
       <c r="C81" s="7"/>
@@ -3207,7 +3225,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="4"/>
     </row>
-    <row r="82" spans="1:19" ht="16.5">
+    <row r="82" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A82" s="7"/>
       <c r="B82" s="4"/>
       <c r="C82" s="7"/>
@@ -3228,7 +3246,7 @@
       <c r="R82" s="7"/>
       <c r="S82" s="4"/>
     </row>
-    <row r="83" spans="1:19" ht="16.5">
+    <row r="83" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A83" s="7"/>
       <c r="B83" s="4"/>
       <c r="C83" s="7"/>
@@ -3249,7 +3267,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="4"/>
     </row>
-    <row r="84" spans="1:19" ht="16.5">
+    <row r="84" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A84" s="7"/>
       <c r="B84" s="4"/>
       <c r="C84" s="7"/>
@@ -3270,7 +3288,7 @@
       <c r="R84" s="7"/>
       <c r="S84" s="4"/>
     </row>
-    <row r="85" spans="1:19" ht="16.5">
+    <row r="85" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A85" s="7"/>
       <c r="B85" s="4"/>
       <c r="C85" s="7"/>
@@ -3291,7 +3309,7 @@
       <c r="R85" s="7"/>
       <c r="S85" s="4"/>
     </row>
-    <row r="86" spans="1:19" ht="16.5">
+    <row r="86" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A86" s="7"/>
       <c r="B86" s="4"/>
       <c r="C86" s="7"/>
@@ -3312,7 +3330,7 @@
       <c r="R86" s="7"/>
       <c r="S86" s="4"/>
     </row>
-    <row r="87" spans="1:19" ht="16.5">
+    <row r="87" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A87" s="7"/>
       <c r="B87" s="4"/>
       <c r="C87" s="7"/>
@@ -3333,7 +3351,7 @@
       <c r="R87" s="7"/>
       <c r="S87" s="4"/>
     </row>
-    <row r="88" spans="1:19" ht="16.5">
+    <row r="88" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A88" s="7"/>
       <c r="B88" s="4"/>
       <c r="C88" s="7"/>
@@ -3354,7 +3372,7 @@
       <c r="R88" s="7"/>
       <c r="S88" s="4"/>
     </row>
-    <row r="89" spans="1:19" ht="16.5">
+    <row r="89" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A89" s="7"/>
       <c r="B89" s="4"/>
       <c r="C89" s="7"/>
@@ -3375,7 +3393,7 @@
       <c r="R89" s="7"/>
       <c r="S89" s="4"/>
     </row>
-    <row r="90" spans="1:19" ht="16.5">
+    <row r="90" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A90" s="7"/>
       <c r="B90" s="4"/>
       <c r="C90" s="7"/>
@@ -3396,7 +3414,7 @@
       <c r="R90" s="7"/>
       <c r="S90" s="4"/>
     </row>
-    <row r="91" spans="1:19" ht="16.5">
+    <row r="91" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A91" s="7"/>
       <c r="B91" s="4"/>
       <c r="C91" s="7"/>
@@ -3417,7 +3435,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="4"/>
     </row>
-    <row r="92" spans="1:19" ht="16.5">
+    <row r="92" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A92" s="7"/>
       <c r="B92" s="4"/>
       <c r="C92" s="7"/>
@@ -3438,7 +3456,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="4"/>
     </row>
-    <row r="93" spans="1:19" ht="16.5">
+    <row r="93" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A93" s="7"/>
       <c r="B93" s="4"/>
       <c r="C93" s="7"/>
@@ -3459,7 +3477,7 @@
       <c r="R93" s="7"/>
       <c r="S93" s="4"/>
     </row>
-    <row r="94" spans="1:19" ht="16.5">
+    <row r="94" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A94" s="7"/>
       <c r="B94" s="4"/>
       <c r="C94" s="7"/>
@@ -3480,7 +3498,7 @@
       <c r="R94" s="7"/>
       <c r="S94" s="4"/>
     </row>
-    <row r="95" spans="1:19" ht="16.5">
+    <row r="95" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A95" s="7"/>
       <c r="B95" s="4"/>
       <c r="C95" s="7"/>
@@ -3501,7 +3519,7 @@
       <c r="R95" s="7"/>
       <c r="S95" s="4"/>
     </row>
-    <row r="96" spans="1:19" ht="16.5">
+    <row r="96" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A96" s="7"/>
       <c r="B96" s="4"/>
       <c r="C96" s="7"/>
@@ -3522,7 +3540,7 @@
       <c r="R96" s="7"/>
       <c r="S96" s="4"/>
     </row>
-    <row r="97" spans="1:19" ht="16.5">
+    <row r="97" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A97" s="7"/>
       <c r="B97" s="4"/>
       <c r="C97" s="7"/>
@@ -3543,7 +3561,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="4"/>
     </row>
-    <row r="98" spans="1:19" ht="16.5">
+    <row r="98" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A98" s="7"/>
       <c r="B98" s="4"/>
       <c r="C98" s="7"/>
@@ -3564,7 +3582,7 @@
       <c r="R98" s="7"/>
       <c r="S98" s="4"/>
     </row>
-    <row r="99" spans="1:19" ht="16.5">
+    <row r="99" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A99" s="7"/>
       <c r="B99" s="4"/>
       <c r="C99" s="7"/>
@@ -3585,7 +3603,7 @@
       <c r="R99" s="7"/>
       <c r="S99" s="4"/>
     </row>
-    <row r="100" spans="1:19" ht="16.5">
+    <row r="100" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A100" s="7"/>
       <c r="B100" s="4"/>
       <c r="C100" s="7"/>
@@ -3606,7 +3624,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="4"/>
     </row>
-    <row r="101" spans="1:19" ht="16.5">
+    <row r="101" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A101" s="7"/>
       <c r="B101" s="4"/>
       <c r="C101" s="7"/>
@@ -3627,7 +3645,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="4"/>
     </row>
-    <row r="102" spans="1:19" ht="16.5">
+    <row r="102" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A102" s="7"/>
       <c r="B102" s="4"/>
       <c r="C102" s="7"/>
@@ -3648,7 +3666,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="4"/>
     </row>
-    <row r="103" spans="1:19" ht="16.5">
+    <row r="103" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A103" s="7"/>
       <c r="B103" s="4"/>
       <c r="C103" s="7"/>
@@ -3669,7 +3687,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="4"/>
     </row>
-    <row r="104" spans="1:19" ht="16.5">
+    <row r="104" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A104" s="7"/>
       <c r="B104" s="4"/>
       <c r="C104" s="7"/>
@@ -3690,7 +3708,7 @@
       <c r="R104" s="7"/>
       <c r="S104" s="4"/>
     </row>
-    <row r="105" spans="1:19" ht="16.5">
+    <row r="105" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A105" s="7"/>
       <c r="B105" s="4"/>
       <c r="C105" s="7"/>
@@ -3711,7 +3729,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="4"/>
     </row>
-    <row r="106" spans="1:19" ht="16.5">
+    <row r="106" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A106" s="7"/>
       <c r="B106" s="4"/>
       <c r="C106" s="7"/>
@@ -3732,7 +3750,7 @@
       <c r="R106" s="7"/>
       <c r="S106" s="4"/>
     </row>
-    <row r="107" spans="1:19" ht="16.5">
+    <row r="107" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A107" s="7"/>
       <c r="B107" s="4"/>
       <c r="C107" s="7"/>
@@ -3753,7 +3771,7 @@
       <c r="R107" s="7"/>
       <c r="S107" s="4"/>
     </row>
-    <row r="108" spans="1:19" ht="16.5">
+    <row r="108" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A108" s="7"/>
       <c r="B108" s="4"/>
       <c r="C108" s="7"/>
@@ -3774,7 +3792,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="4"/>
     </row>
-    <row r="109" spans="1:19" ht="16.5">
+    <row r="109" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A109" s="7"/>
       <c r="B109" s="4"/>
       <c r="C109" s="7"/>
@@ -3795,7 +3813,7 @@
       <c r="R109" s="7"/>
       <c r="S109" s="4"/>
     </row>
-    <row r="110" spans="1:19" ht="16.5">
+    <row r="110" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A110" s="7"/>
       <c r="B110" s="4"/>
       <c r="C110" s="7"/>
@@ -3816,7 +3834,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="4"/>
     </row>
-    <row r="111" spans="1:19" ht="16.5">
+    <row r="111" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A111" s="7"/>
       <c r="B111" s="4"/>
       <c r="C111" s="7"/>
@@ -3837,7 +3855,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="4"/>
     </row>
-    <row r="112" spans="1:19" ht="16.5">
+    <row r="112" spans="1:19" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A112" s="7"/>
       <c r="B112" s="4"/>
       <c r="C112" s="7"/>
@@ -3858,7 +3876,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="4"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A113" s="7"/>
       <c r="B113" s="4"/>
       <c r="C113" s="7"/>
@@ -3879,7 +3897,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="4"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A114" s="7"/>
       <c r="B114" s="4"/>
       <c r="C114" s="7"/>
@@ -3900,7 +3918,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="4"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A115" s="7"/>
       <c r="B115" s="4"/>
       <c r="C115" s="7"/>
@@ -3921,7 +3939,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="4"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A116" s="7"/>
       <c r="B116" s="4"/>
       <c r="C116" s="7"/>
@@ -3942,7 +3960,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="4"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A117" s="7"/>
       <c r="B117" s="4"/>
       <c r="C117" s="7"/>
@@ -3963,7 +3981,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="4"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A118" s="7"/>
       <c r="B118" s="4"/>
       <c r="C118" s="7"/>
@@ -3984,7 +4002,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="4"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A119" s="7"/>
       <c r="B119" s="4"/>
       <c r="C119" s="7"/>
@@ -4005,7 +4023,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="4"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A120" s="7"/>
       <c r="B120" s="4"/>
       <c r="C120" s="7"/>
@@ -4026,7 +4044,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="4"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A121" s="7"/>
       <c r="B121" s="4"/>
       <c r="C121" s="7"/>
@@ -4047,7 +4065,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="4"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A122" s="7"/>
       <c r="B122" s="4"/>
       <c r="C122" s="7"/>
@@ -4068,7 +4086,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="4"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A123" s="7"/>
       <c r="B123" s="4"/>
       <c r="C123" s="7"/>
@@ -4089,7 +4107,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="4"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A124" s="7"/>
       <c r="B124" s="4"/>
       <c r="C124" s="7"/>
@@ -4110,7 +4128,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="4"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A125" s="7"/>
       <c r="B125" s="4"/>
       <c r="C125" s="7"/>
@@ -4131,7 +4149,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="4"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A126" s="7"/>
       <c r="B126" s="4"/>
       <c r="C126" s="7"/>
@@ -4152,7 +4170,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="4"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A127" s="7"/>
       <c r="B127" s="4"/>
       <c r="C127" s="7"/>
@@ -4173,7 +4191,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="4"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A128" s="7"/>
       <c r="B128" s="4"/>
       <c r="C128" s="7"/>
@@ -4194,7 +4212,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="4"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A129" s="7"/>
       <c r="B129" s="4"/>
       <c r="C129" s="7"/>
@@ -4215,7 +4233,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="4"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A130" s="7"/>
       <c r="B130" s="4"/>
       <c r="C130" s="7"/>
@@ -4236,7 +4254,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="4"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A131" s="7"/>
       <c r="B131" s="4"/>
       <c r="C131" s="7"/>
@@ -4257,7 +4275,7 @@
       <c r="R131" s="7"/>
       <c r="S131" s="4"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A132" s="7"/>
       <c r="B132" s="4"/>
       <c r="C132" s="7"/>
@@ -4278,7 +4296,7 @@
       <c r="R132" s="7"/>
       <c r="S132" s="4"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A133" s="7"/>
       <c r="B133" s="4"/>
       <c r="C133" s="7"/>
@@ -4299,7 +4317,7 @@
       <c r="R133" s="7"/>
       <c r="S133" s="4"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A134" s="7"/>
       <c r="B134" s="4"/>
       <c r="C134" s="7"/>
@@ -4320,7 +4338,7 @@
       <c r="R134" s="7"/>
       <c r="S134" s="4"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A135" s="7"/>
       <c r="B135" s="4"/>
       <c r="C135" s="7"/>
@@ -4341,7 +4359,7 @@
       <c r="R135" s="7"/>
       <c r="S135" s="4"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A136" s="7"/>
       <c r="B136" s="4"/>
       <c r="C136" s="7"/>
@@ -4362,7 +4380,7 @@
       <c r="R136" s="7"/>
       <c r="S136" s="4"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A137" s="7"/>
       <c r="B137" s="4"/>
       <c r="C137" s="7"/>
@@ -4383,7 +4401,7 @@
       <c r="R137" s="7"/>
       <c r="S137" s="4"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A138" s="7"/>
       <c r="B138" s="4"/>
       <c r="C138" s="7"/>
@@ -4404,7 +4422,7 @@
       <c r="R138" s="7"/>
       <c r="S138" s="4"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A139" s="7"/>
       <c r="B139" s="4"/>
       <c r="C139" s="7"/>
@@ -4425,7 +4443,7 @@
       <c r="R139" s="7"/>
       <c r="S139" s="4"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A140" s="7"/>
       <c r="B140" s="4"/>
       <c r="C140" s="7"/>
@@ -4446,7 +4464,7 @@
       <c r="R140" s="7"/>
       <c r="S140" s="4"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A141" s="7"/>
       <c r="B141" s="4"/>
       <c r="C141" s="7"/>
@@ -4467,7 +4485,7 @@
       <c r="R141" s="7"/>
       <c r="S141" s="4"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A142" s="7"/>
       <c r="B142" s="4"/>
       <c r="C142" s="7"/>
@@ -4488,7 +4506,7 @@
       <c r="R142" s="7"/>
       <c r="S142" s="4"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A143" s="7"/>
       <c r="B143" s="4"/>
       <c r="C143" s="7"/>
@@ -4509,7 +4527,7 @@
       <c r="R143" s="7"/>
       <c r="S143" s="4"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A144" s="7"/>
       <c r="B144" s="4"/>
       <c r="C144" s="7"/>
@@ -4530,7 +4548,7 @@
       <c r="R144" s="7"/>
       <c r="S144" s="4"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A145" s="7"/>
       <c r="B145" s="4"/>
       <c r="C145" s="7"/>
@@ -4551,7 +4569,7 @@
       <c r="R145" s="7"/>
       <c r="S145" s="4"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A146" s="7"/>
       <c r="B146" s="4"/>
       <c r="C146" s="7"/>
@@ -4572,7 +4590,7 @@
       <c r="R146" s="7"/>
       <c r="S146" s="4"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A147" s="7"/>
       <c r="B147" s="4"/>
       <c r="C147" s="7"/>
@@ -4593,7 +4611,7 @@
       <c r="R147" s="7"/>
       <c r="S147" s="4"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A148" s="7"/>
       <c r="B148" s="4"/>
       <c r="C148" s="7"/>
@@ -4614,7 +4632,7 @@
       <c r="R148" s="7"/>
       <c r="S148" s="4"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A149" s="7"/>
       <c r="B149" s="4"/>
       <c r="C149" s="7"/>
@@ -4635,7 +4653,7 @@
       <c r="R149" s="7"/>
       <c r="S149" s="4"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A150" s="7"/>
       <c r="B150" s="4"/>
       <c r="C150" s="7"/>
@@ -4656,7 +4674,7 @@
       <c r="R150" s="7"/>
       <c r="S150" s="4"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A151" s="7"/>
       <c r="B151" s="4"/>
       <c r="C151" s="7"/>
@@ -4677,7 +4695,7 @@
       <c r="R151" s="7"/>
       <c r="S151" s="4"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A152" s="7"/>
       <c r="B152" s="4"/>
       <c r="C152" s="7"/>
@@ -4698,7 +4716,7 @@
       <c r="R152" s="7"/>
       <c r="S152" s="4"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A153" s="7"/>
       <c r="B153" s="4"/>
       <c r="C153" s="7"/>
@@ -4719,7 +4737,7 @@
       <c r="R153" s="7"/>
       <c r="S153" s="4"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A154" s="7"/>
       <c r="B154" s="4"/>
       <c r="C154" s="7"/>
@@ -4740,7 +4758,7 @@
       <c r="R154" s="7"/>
       <c r="S154" s="4"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A155" s="7"/>
       <c r="B155" s="4"/>
       <c r="C155" s="7"/>
@@ -4761,7 +4779,7 @@
       <c r="R155" s="7"/>
       <c r="S155" s="4"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A156" s="7"/>
       <c r="B156" s="4"/>
       <c r="C156" s="7"/>
@@ -4782,7 +4800,7 @@
       <c r="R156" s="7"/>
       <c r="S156" s="4"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A157" s="7"/>
       <c r="B157" s="4"/>
       <c r="C157" s="7"/>
@@ -4803,7 +4821,7 @@
       <c r="R157" s="7"/>
       <c r="S157" s="4"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A158" s="7"/>
       <c r="B158" s="4"/>
       <c r="C158" s="7"/>
@@ -4824,7 +4842,7 @@
       <c r="R158" s="7"/>
       <c r="S158" s="4"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A159" s="7"/>
       <c r="B159" s="4"/>
       <c r="C159" s="7"/>
@@ -4845,7 +4863,7 @@
       <c r="R159" s="7"/>
       <c r="S159" s="4"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A160" s="7"/>
       <c r="B160" s="4"/>
       <c r="C160" s="7"/>
@@ -4866,7 +4884,7 @@
       <c r="R160" s="7"/>
       <c r="S160" s="4"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A161" s="7"/>
       <c r="B161" s="4"/>
       <c r="C161" s="7"/>
@@ -4886,7 +4904,7 @@
       <c r="Q161" s="7"/>
       <c r="S161" s="4"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A162" s="7"/>
       <c r="B162" s="4"/>
       <c r="C162" s="7"/>
@@ -4906,7 +4924,7 @@
       <c r="Q162" s="7"/>
       <c r="S162" s="4"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A163" s="7"/>
       <c r="B163" s="4"/>
       <c r="C163" s="7"/>
@@ -4926,7 +4944,7 @@
       <c r="Q163" s="7"/>
       <c r="S163" s="4"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A164" s="7"/>
       <c r="B164" s="4"/>
       <c r="C164" s="7"/>
@@ -4946,7 +4964,7 @@
       <c r="Q164" s="7"/>
       <c r="S164" s="4"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A165" s="7"/>
       <c r="B165" s="4"/>
       <c r="C165" s="7"/>
@@ -4966,7 +4984,7 @@
       <c r="Q165" s="7"/>
       <c r="S165" s="4"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A166" s="7"/>
       <c r="B166" s="4"/>
       <c r="C166" s="7"/>
@@ -4986,7 +5004,7 @@
       <c r="Q166" s="7"/>
       <c r="S166" s="4"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A167" s="7"/>
       <c r="B167" s="4"/>
       <c r="C167" s="7"/>
@@ -5006,7 +5024,7 @@
       <c r="Q167" s="7"/>
       <c r="S167" s="4"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A168" s="7"/>
       <c r="B168" s="4"/>
       <c r="C168" s="7"/>
@@ -5026,7 +5044,7 @@
       <c r="Q168" s="7"/>
       <c r="S168" s="4"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A169" s="7"/>
       <c r="B169" s="4"/>
       <c r="C169" s="7"/>
@@ -5046,7 +5064,7 @@
       <c r="Q169" s="7"/>
       <c r="S169" s="4"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A170" s="7"/>
       <c r="B170" s="4"/>
       <c r="C170" s="7"/>
@@ -5066,7 +5084,7 @@
       <c r="Q170" s="7"/>
       <c r="S170" s="4"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A171" s="7"/>
       <c r="B171" s="4"/>
       <c r="C171" s="7"/>
@@ -5086,7 +5104,7 @@
       <c r="Q171" s="7"/>
       <c r="S171" s="4"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A172" s="7"/>
       <c r="B172" s="4"/>
       <c r="C172" s="7"/>
@@ -5106,7 +5124,7 @@
       <c r="Q172" s="7"/>
       <c r="S172" s="4"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A173" s="7"/>
       <c r="B173" s="4"/>
       <c r="C173" s="7"/>
@@ -5124,7 +5142,7 @@
       <c r="O173" s="4"/>
       <c r="S173" s="4"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A174" s="7"/>
       <c r="B174" s="4"/>
       <c r="C174" s="7"/>
@@ -5142,7 +5160,7 @@
       <c r="O174" s="4"/>
       <c r="S174" s="4"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A175" s="7"/>
       <c r="B175" s="4"/>
       <c r="C175" s="7"/>
@@ -5160,7 +5178,7 @@
       <c r="O175" s="4"/>
       <c r="S175" s="4"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A176" s="7"/>
       <c r="B176" s="4"/>
       <c r="C176" s="7"/>
@@ -5178,7 +5196,7 @@
       <c r="O176" s="4"/>
       <c r="S176" s="4"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A177" s="7"/>
       <c r="B177" s="4"/>
       <c r="C177" s="7"/>
@@ -5196,7 +5214,7 @@
       <c r="O177" s="4"/>
       <c r="S177" s="4"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A178" s="7"/>
       <c r="B178" s="4"/>
       <c r="C178" s="7"/>
@@ -5214,7 +5232,7 @@
       <c r="O178" s="4"/>
       <c r="S178" s="4"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A179" s="7"/>
       <c r="B179" s="4"/>
       <c r="C179" s="7"/>
@@ -5232,7 +5250,7 @@
       <c r="O179" s="4"/>
       <c r="S179" s="4"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A180" s="7"/>
       <c r="B180" s="4"/>
       <c r="C180" s="7"/>
@@ -5250,7 +5268,7 @@
       <c r="O180" s="4"/>
       <c r="S180" s="4"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A181" s="7"/>
       <c r="B181" s="4"/>
       <c r="C181" s="7"/>
@@ -5268,7 +5286,7 @@
       <c r="O181" s="4"/>
       <c r="S181" s="4"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A182" s="7"/>
       <c r="B182" s="4"/>
       <c r="C182" s="7"/>
@@ -5286,7 +5304,7 @@
       <c r="O182" s="4"/>
       <c r="S182" s="4"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A183" s="7"/>
       <c r="B183" s="4"/>
       <c r="C183" s="7"/>
@@ -5304,7 +5322,7 @@
       <c r="O183" s="4"/>
       <c r="S183" s="4"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A184" s="7"/>
       <c r="B184" s="4"/>
       <c r="C184" s="7"/>
@@ -5322,7 +5340,7 @@
       <c r="O184" s="4"/>
       <c r="S184" s="4"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A185" s="7"/>
       <c r="B185" s="4"/>
       <c r="C185" s="7"/>
@@ -5340,7 +5358,7 @@
       <c r="O185" s="4"/>
       <c r="S185" s="4"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A186" s="7"/>
       <c r="B186" s="4"/>
       <c r="C186" s="7"/>
@@ -5358,7 +5376,7 @@
       <c r="O186" s="4"/>
       <c r="S186" s="4"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A187" s="7"/>
       <c r="B187" s="4"/>
       <c r="C187" s="7"/>
@@ -5376,7 +5394,7 @@
       <c r="O187" s="4"/>
       <c r="S187" s="4"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A188" s="7"/>
       <c r="B188" s="4"/>
       <c r="C188" s="7"/>
@@ -5394,7 +5412,7 @@
       <c r="O188" s="4"/>
       <c r="S188" s="4"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A189" s="7"/>
       <c r="B189" s="4"/>
       <c r="C189" s="7"/>
@@ -5412,7 +5430,7 @@
       <c r="O189" s="4"/>
       <c r="S189" s="4"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A190" s="7"/>
       <c r="B190" s="4"/>
       <c r="C190" s="7"/>
@@ -5430,7 +5448,7 @@
       <c r="O190" s="4"/>
       <c r="S190" s="4"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A191" s="7"/>
       <c r="B191" s="4"/>
       <c r="C191" s="7"/>
@@ -5448,7 +5466,7 @@
       <c r="O191" s="4"/>
       <c r="S191" s="4"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A192" s="7"/>
       <c r="B192" s="4"/>
       <c r="C192" s="7"/>
@@ -5466,7 +5484,7 @@
       <c r="O192" s="4"/>
       <c r="S192" s="4"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A193" s="7"/>
       <c r="B193" s="4"/>
       <c r="C193" s="7"/>
@@ -5484,7 +5502,7 @@
       <c r="O193" s="4"/>
       <c r="S193" s="4"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A194" s="7"/>
       <c r="B194" s="4"/>
       <c r="C194" s="7"/>
@@ -5502,7 +5520,7 @@
       <c r="O194" s="4"/>
       <c r="S194" s="4"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A195" s="7"/>
       <c r="B195" s="4"/>
       <c r="C195" s="7"/>
@@ -5520,7 +5538,7 @@
       <c r="O195" s="4"/>
       <c r="S195" s="4"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A196" s="7"/>
       <c r="B196" s="4"/>
       <c r="C196" s="7"/>
@@ -5538,7 +5556,7 @@
       <c r="O196" s="4"/>
       <c r="S196" s="4"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A197" s="7"/>
       <c r="B197" s="4"/>
       <c r="C197" s="7"/>
@@ -5556,7 +5574,7 @@
       <c r="O197" s="4"/>
       <c r="S197" s="4"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A198" s="7"/>
       <c r="B198" s="4"/>
       <c r="C198" s="7"/>
@@ -5574,7 +5592,7 @@
       <c r="O198" s="4"/>
       <c r="S198" s="4"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A199" s="7"/>
       <c r="B199" s="4"/>
       <c r="C199" s="7"/>
@@ -5592,7 +5610,7 @@
       <c r="O199" s="4"/>
       <c r="S199" s="4"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A200" s="7"/>
       <c r="B200" s="4"/>
       <c r="C200" s="7"/>
@@ -5610,7 +5628,7 @@
       <c r="O200" s="4"/>
       <c r="S200" s="4"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A201" s="7"/>
       <c r="B201" s="4"/>
       <c r="C201" s="7"/>
@@ -5628,7 +5646,7 @@
       <c r="O201" s="4"/>
       <c r="S201" s="4"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A202" s="7"/>
       <c r="B202" s="4"/>
       <c r="C202" s="7"/>
@@ -5646,7 +5664,7 @@
       <c r="O202" s="4"/>
       <c r="S202" s="4"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A203" s="7"/>
       <c r="B203" s="4"/>
       <c r="C203" s="7"/>
@@ -5664,7 +5682,7 @@
       <c r="O203" s="4"/>
       <c r="S203" s="4"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A204" s="7"/>
       <c r="B204" s="4"/>
       <c r="C204" s="7"/>
@@ -5682,7 +5700,7 @@
       <c r="O204" s="4"/>
       <c r="S204" s="4"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A205" s="7"/>
       <c r="B205" s="4"/>
       <c r="C205" s="7"/>
@@ -5700,7 +5718,7 @@
       <c r="O205" s="4"/>
       <c r="S205" s="4"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A206" s="7"/>
       <c r="B206" s="4"/>
       <c r="C206" s="7"/>
@@ -5718,7 +5736,7 @@
       <c r="O206" s="4"/>
       <c r="S206" s="4"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A207" s="7"/>
       <c r="B207" s="4"/>
       <c r="C207" s="7"/>
@@ -5744,14 +5762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="43.25" customWidth="1"/>
@@ -5762,7 +5780,7 @@
     <col min="8" max="8" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="24" t="s">
         <v>19</v>
       </c>
@@ -5788,7 +5806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -5798,7 +5816,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="26"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -5808,7 +5826,7 @@
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -5818,7 +5836,7 @@
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="25"/>
@@ -5828,7 +5846,7 @@
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="25"/>
@@ -5838,7 +5856,7 @@
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="25"/>
@@ -5848,7 +5866,7 @@
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="25"/>
@@ -5858,7 +5876,7 @@
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
@@ -5868,7 +5886,7 @@
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="25"/>
@@ -5878,7 +5896,7 @@
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25"/>
@@ -5888,7 +5906,7 @@
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="25"/>
@@ -5898,7 +5916,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="25"/>
@@ -5908,7 +5926,7 @@
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="25"/>
@@ -5918,7 +5936,7 @@
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
@@ -5928,7 +5946,7 @@
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="25"/>
@@ -5938,7 +5956,7 @@
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
@@ -5948,7 +5966,7 @@
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="25"/>
@@ -5958,7 +5976,7 @@
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="25"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MogoGit\Mogo_Doc\VersionRecords\Version3.1.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="27630" windowHeight="10125"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -262,10 +257,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -303,6 +294,10 @@
   </si>
   <si>
     <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +970,7 @@
   <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
@@ -1094,7 +1089,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="13"/>
@@ -1250,7 +1245,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>15</v>
@@ -1294,7 +1289,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
@@ -1319,13 +1314,13 @@
         <v>61</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="13">
         <v>42479</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -1346,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>15</v>
@@ -1368,11 +1363,17 @@
         <v>28</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="31"/>
@@ -1480,7 +1481,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>15</v>
@@ -1505,13 +1506,13 @@
         <v>62</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11" s="13">
         <v>42479</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1532,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>15</v>
@@ -1576,7 +1577,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>15</v>
@@ -1601,13 +1602,13 @@
         <v>60</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N13" s="13">
         <v>42479</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1628,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>15</v>
@@ -1653,13 +1654,13 @@
         <v>60</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="13">
         <v>42479</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1680,7 +1681,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>15</v>
@@ -1705,13 +1706,13 @@
         <v>60</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15" s="13">
         <v>42479</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1776,7 +1777,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>15</v>
@@ -1801,13 +1802,13 @@
         <v>60</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N17" s="13">
         <v>42479</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1828,7 +1829,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>15</v>
@@ -1853,13 +1854,13 @@
         <v>60</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N18" s="13">
         <v>42479</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MogoGit\Mogo_Doc\VersionRecords\Version3.1.1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="27630" windowHeight="10125"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -262,10 +257,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>余星赞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>接口</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -303,6 +294,10 @@
   </si>
   <si>
     <t>施超</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>李傲</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -975,7 +970,7 @@
   <dimension ref="A1:T207"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="O8" sqref="L8:O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1072,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>15</v>
@@ -1094,7 +1089,7 @@
         <v>28</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M2" s="14"/>
       <c r="N2" s="13"/>
@@ -1250,7 +1245,7 @@
         <v>29</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>15</v>
@@ -1294,7 +1289,7 @@
         <v>29</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>15</v>
@@ -1319,13 +1314,13 @@
         <v>61</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N7" s="13">
         <v>42479</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
@@ -1346,7 +1341,7 @@
         <v>29</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>15</v>
@@ -1368,11 +1363,17 @@
         <v>28</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="14"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="M8" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" s="13">
+        <v>42479</v>
+      </c>
+      <c r="O8" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="31"/>
@@ -1480,7 +1481,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>15</v>
@@ -1505,13 +1506,13 @@
         <v>62</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N11" s="13">
         <v>42479</v>
       </c>
       <c r="O11" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
@@ -1532,7 +1533,7 @@
         <v>29</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>15</v>
@@ -1576,7 +1577,7 @@
         <v>29</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>15</v>
@@ -1601,13 +1602,13 @@
         <v>60</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N13" s="13">
         <v>42479</v>
       </c>
       <c r="O13" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
@@ -1628,7 +1629,7 @@
         <v>29</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>15</v>
@@ -1653,13 +1654,13 @@
         <v>60</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N14" s="13">
         <v>42479</v>
       </c>
       <c r="O14" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -1680,7 +1681,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>15</v>
@@ -1705,13 +1706,13 @@
         <v>60</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N15" s="13">
         <v>42479</v>
       </c>
       <c r="O15" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -1776,7 +1777,7 @@
         <v>29</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>15</v>
@@ -1801,13 +1802,13 @@
         <v>60</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N17" s="13">
         <v>42479</v>
       </c>
       <c r="O17" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -1828,7 +1829,7 @@
         <v>29</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>15</v>
@@ -1853,13 +1854,13 @@
         <v>60</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N18" s="13">
         <v>42479</v>
       </c>
       <c r="O18" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>

--- a/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
+++ b/VersionRecords/Version3.1.1/版本Bug和特性计划及评审表v3.1.1_闪电组.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MogoGit\Mogo_Doc\VersionRecords\Version3.1.1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2775" windowWidth="27630" windowHeight="10125"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -969,8 +974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O8" sqref="L8:O8"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1091,9 +1096,15 @@
       <c r="L2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="M2" s="14"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="14"/>
+      <c r="M2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="N2" s="13">
+        <v>42480</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>71</v>
+      </c>
       <c r="P2" s="22"/>
       <c r="Q2" s="22"/>
       <c r="R2" s="30"/>
